--- a/Team-Data/2012-13/2-22-2012-13.xlsx
+++ b/Team-Data/2012-13/2-22-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
         <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J2" t="n">
-        <v>80.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L2" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.38</v>
+        <v>0.379</v>
       </c>
       <c r="O2" t="n">
         <v>13.6</v>
@@ -705,64 +772,64 @@
         <v>19.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="R2" t="n">
         <v>9.5</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
         <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="W2" t="n">
         <v>7.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.3</v>
+        <v>96.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>7</v>
@@ -780,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="AP2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -789,10 +856,10 @@
         <v>27</v>
       </c>
       <c r="AS2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
@@ -804,10 +871,10 @@
         <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -816,10 +883,10 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -848,70 +915,70 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
         <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.527</v>
+        <v>0.519</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
         <v>80.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L3" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.345</v>
+        <v>0.343</v>
       </c>
       <c r="O3" t="n">
         <v>16.4</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.779</v>
+        <v>0.782</v>
       </c>
       <c r="R3" t="n">
         <v>8.5</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T3" t="n">
-        <v>40</v>
+        <v>39.9</v>
       </c>
       <c r="U3" t="n">
         <v>23.3</v>
       </c>
       <c r="V3" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
         <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
         <v>21.6</v>
@@ -920,13 +987,13 @@
         <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -947,37 +1014,37 @@
         <v>26</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL3" t="n">
         <v>26</v>
       </c>
       <c r="AM3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN3" t="n">
         <v>26</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP3" t="n">
         <v>23</v>
       </c>
-      <c r="AO3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>9</v>
@@ -1001,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
         <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.589</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J4" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.441</v>
       </c>
       <c r="L4" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M4" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>24.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
         <v>12.5</v>
       </c>
       <c r="S4" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T4" t="n">
         <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
@@ -1096,22 +1163,22 @@
         <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AA4" t="n">
         <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD4" t="n">
         <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1138,13 +1205,13 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1153,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT4" t="n">
         <v>15</v>
@@ -1162,13 +1229,13 @@
         <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1183,7 +1250,7 @@
         <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -1212,46 +1279,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="n">
-        <v>0.236</v>
+        <v>0.241</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>16.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
       </c>
       <c r="P5" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R5" t="n">
         <v>11.5</v>
@@ -1263,10 +1330,10 @@
         <v>41.2</v>
       </c>
       <c r="U5" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>7.1</v>
@@ -1278,19 +1345,19 @@
         <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,13 +1369,13 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1317,10 +1384,10 @@
         <v>25</v>
       </c>
       <c r="AM5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1347,7 +1414,7 @@
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -1394,28 +1461,28 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
         <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.582</v>
+        <v>0.574</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
         <v>4.7</v>
@@ -1433,7 +1500,7 @@
         <v>21.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R6" t="n">
         <v>12.8</v>
@@ -1445,10 +1512,10 @@
         <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1460,31 +1527,31 @@
         <v>5.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1493,10 +1560,10 @@
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
         <v>29</v>
@@ -1511,28 +1578,28 @@
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1541,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-4.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1669,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1684,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>14</v>
@@ -1693,10 +1760,10 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1705,7 +1772,7 @@
         <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>7</v>
@@ -1714,7 +1781,7 @@
         <v>12</v>
       </c>
       <c r="AX7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1726,7 +1793,7 @@
         <v>11</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.463</v>
+        <v>0.453</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
         <v>84.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
         <v>7.3</v>
@@ -1794,22 +1861,22 @@
         <v>17.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S8" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
         <v>42.5</v>
       </c>
       <c r="U8" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
         <v>14.1</v>
@@ -1818,7 +1885,7 @@
         <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y8" t="n">
         <v>4.4</v>
@@ -1830,22 +1897,22 @@
         <v>19.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>17</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1866,7 +1933,7 @@
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>10</v>
@@ -1881,13 +1948,13 @@
         <v>26</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>6</v>
@@ -1896,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
@@ -1905,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB8" t="n">
         <v>7</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="n">
         <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.607</v>
+        <v>0.618</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1958,46 +2025,46 @@
         <v>40.2</v>
       </c>
       <c r="J9" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K9" t="n">
         <v>0.471</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M9" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>17.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="S9" t="n">
         <v>31.8</v>
       </c>
       <c r="T9" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
         <v>23.9</v>
       </c>
       <c r="V9" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X9" t="n">
         <v>6.5</v>
@@ -2006,16 +2073,16 @@
         <v>6.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD9" t="n">
         <v>5</v>
@@ -2024,10 +2091,10 @@
         <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
@@ -2042,13 +2109,13 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
         <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
         <v>7</v>
@@ -2072,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>3</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -2122,58 +2189,58 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.386</v>
+        <v>0.393</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J10" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L10" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.365</v>
+        <v>0.369</v>
       </c>
       <c r="O10" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P10" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6929999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="R10" t="n">
         <v>12.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
         <v>43.5</v>
       </c>
       <c r="U10" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2188,22 +2255,22 @@
         <v>5.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.3</v>
+        <v>-1.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
@@ -2212,10 +2279,10 @@
         <v>22</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ10" t="n">
         <v>18</v>
@@ -2230,7 +2297,7 @@
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
         <v>22</v>
@@ -2239,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>7</v>
@@ -2254,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>27</v>
@@ -2263,19 +2330,19 @@
         <v>8</v>
       </c>
       <c r="AY10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -2304,43 +2371,43 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
         <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.582</v>
+        <v>0.574</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I11" t="n">
         <v>38.1</v>
       </c>
       <c r="J11" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.39</v>
+        <v>0.393</v>
       </c>
       <c r="O11" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
         <v>0.797</v>
@@ -2349,16 +2416,16 @@
         <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
         <v>22.9</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
@@ -2376,31 +2443,31 @@
         <v>19.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2412,7 +2479,7 @@
         <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
@@ -2430,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW11" t="n">
         <v>28</v>
@@ -2451,13 +2518,13 @@
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="n">
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.544</v>
+        <v>0.536</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,52 +2571,52 @@
         <v>38.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L12" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="M12" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.367</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25</v>
+        <v>25.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R12" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S12" t="n">
         <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
         <v>23.3</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z12" t="n">
         <v>20.2</v>
@@ -2561,13 +2628,13 @@
         <v>106.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>14</v>
@@ -2582,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>6</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -2606,16 +2673,16 @@
         <v>16</v>
       </c>
       <c r="AR12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
         <v>10</v>
       </c>
       <c r="AU12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2633,10 +2700,10 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="n">
         <v>21</v>
       </c>
       <c r="G13" t="n">
-        <v>0.618</v>
+        <v>0.611</v>
       </c>
       <c r="H13" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.355</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P13" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R13" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T13" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V13" t="n">
         <v>15</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
         <v>6.7</v>
@@ -2737,25 +2804,25 @@
         <v>19.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>10</v>
@@ -2764,22 +2831,22 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM13" t="n">
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
         <v>13</v>
@@ -2788,19 +2855,19 @@
         <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
       </c>
       <c r="AU13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
@@ -2809,19 +2876,19 @@
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA13" t="n">
         <v>5</v>
       </c>
       <c r="BB13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2998,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2946,7 +3013,7 @@
         <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2961,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2979,10 +3046,10 @@
         <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="n">
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>0.482</v>
+        <v>0.473</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K15" t="n">
         <v>0.458</v>
       </c>
       <c r="L15" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="N15" t="n">
         <v>0.351</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P15" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.695</v>
+        <v>0.694</v>
       </c>
       <c r="R15" t="n">
         <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>44.8</v>
+        <v>44.7</v>
       </c>
       <c r="U15" t="n">
         <v>22.2</v>
@@ -3098,13 +3165,13 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102</v>
+        <v>101.8</v>
       </c>
       <c r="AC15" t="n">
         <v>1</v>
@@ -3131,7 +3198,7 @@
         <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3140,43 +3207,43 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="n">
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,43 +3299,43 @@
         <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
       </c>
       <c r="M16" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="O16" t="n">
         <v>16.3</v>
       </c>
       <c r="P16" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.781</v>
+        <v>0.786</v>
       </c>
       <c r="R16" t="n">
         <v>13.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W16" t="n">
         <v>8.9</v>
@@ -3277,22 +3344,22 @@
         <v>5.2</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z16" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="AA16" t="n">
         <v>19.8</v>
       </c>
-      <c r="AA16" t="n">
-        <v>19.9</v>
-      </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3304,25 +3371,25 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM16" t="n">
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>21</v>
@@ -3331,7 +3398,7 @@
         <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR16" t="n">
         <v>2</v>
@@ -3340,7 +3407,7 @@
         <v>27</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU16" t="n">
         <v>23</v>
@@ -3355,16 +3422,16 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3513,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>28</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3540,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>16</v>
@@ -3680,13 +3747,13 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN18" t="n">
         <v>21</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>22</v>
       </c>
       <c r="AO18" t="n">
         <v>24</v>
@@ -3698,22 +3765,22 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
         <v>6</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
       </c>
       <c r="AW18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>1</v>
@@ -3725,13 +3792,13 @@
         <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="n">
-        <v>0.385</v>
+        <v>0.392</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J19" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.303</v>
+        <v>0.302</v>
       </c>
       <c r="O19" t="n">
         <v>18.9</v>
       </c>
       <c r="P19" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.734</v>
+        <v>0.733</v>
       </c>
       <c r="R19" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S19" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="T19" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="U19" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
         <v>8</v>
@@ -3826,19 +3893,19 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AA19" t="n">
         <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
         <v>23</v>
@@ -3883,16 +3950,16 @@
         <v>5</v>
       </c>
       <c r="AS19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU19" t="n">
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW19" t="n">
         <v>14</v>
@@ -3901,19 +3968,19 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3960,28 +4027,28 @@
         <v>36.2</v>
       </c>
       <c r="J20" t="n">
-        <v>80.2</v>
+        <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
         <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.375</v>
       </c>
       <c r="O20" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="P20" t="n">
         <v>19.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.767</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
         <v>11.2</v>
@@ -3990,10 +4057,10 @@
         <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>14.6</v>
@@ -4005,7 +4072,7 @@
         <v>5.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
         <v>20.5</v>
@@ -4014,7 +4081,7 @@
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>94.2</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC20" t="n">
         <v>-3.1</v>
@@ -4035,16 +4102,16 @@
         <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
@@ -4056,13 +4123,13 @@
         <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
         <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
@@ -4074,16 +4141,16 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
       </c>
       <c r="AX20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4092,7 +4159,7 @@
         <v>27</v>
       </c>
       <c r="BB20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>23</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" t="n">
         <v>32</v>
       </c>
       <c r="F21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" t="n">
-        <v>0.615</v>
+        <v>0.627</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,7 +4209,7 @@
         <v>36.6</v>
       </c>
       <c r="J21" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.443</v>
@@ -4151,13 +4218,13 @@
         <v>10.9</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
         <v>0.377</v>
       </c>
       <c r="O21" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P21" t="n">
         <v>21.3</v>
@@ -4169,40 +4236,40 @@
         <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T21" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U21" t="n">
         <v>19.6</v>
       </c>
       <c r="V21" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="W21" t="n">
         <v>8.1</v>
       </c>
       <c r="X21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
         <v>9</v>
@@ -4211,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH21" t="n">
         <v>27</v>
@@ -4220,7 +4287,7 @@
         <v>17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK21" t="n">
         <v>17</v>
@@ -4238,16 +4305,16 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>23</v>
@@ -4262,7 +4329,7 @@
         <v>13</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4271,13 +4338,13 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>10</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.727</v>
+        <v>0.722</v>
       </c>
       <c r="H22" t="n">
         <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.483</v>
+        <v>0.482</v>
       </c>
       <c r="L22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O22" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="P22" t="n">
         <v>26.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.832</v>
+        <v>0.83</v>
       </c>
       <c r="R22" t="n">
         <v>10.2</v>
@@ -4357,10 +4424,10 @@
         <v>42.8</v>
       </c>
       <c r="U22" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
         <v>8.4</v>
@@ -4369,22 +4436,22 @@
         <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.7</v>
+        <v>106.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>6</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4432,16 +4499,16 @@
         <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4456,10 +4523,10 @@
         <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -4488,88 +4555,88 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.273</v>
+        <v>0.278</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J23" t="n">
         <v>83.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
         <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
         <v>0.337</v>
       </c>
       <c r="O23" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="P23" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="Q23" t="n">
         <v>0.769</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
         <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U23" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA23" t="n">
         <v>16.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.7</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF23" t="n">
         <v>29</v>
@@ -4584,13 +4651,13 @@
         <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
         <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>16</v>
@@ -4611,25 +4678,25 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ23" t="n">
         <v>7</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-3.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>24</v>
@@ -4778,7 +4845,7 @@
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS24" t="n">
         <v>15</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n">
         <v>18</v>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J25" t="n">
         <v>83.90000000000001</v>
@@ -4876,34 +4943,34 @@
         <v>0.444</v>
       </c>
       <c r="L25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M25" t="n">
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="O25" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.752</v>
+        <v>0.755</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S25" t="n">
         <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U25" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V25" t="n">
         <v>14.7</v>
@@ -4915,19 +4982,19 @@
         <v>5.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.6</v>
+        <v>-5.2</v>
       </c>
       <c r="AD25" t="n">
         <v>5</v>
@@ -4936,7 +5003,7 @@
         <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -4945,7 +5012,7 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ25" t="n">
         <v>5</v>
@@ -4963,13 +5030,13 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP25" t="n">
         <v>27</v>
       </c>
-      <c r="AP25" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>15</v>
@@ -4981,7 +5048,7 @@
         <v>22</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
         <v>14</v>
@@ -4990,13 +5057,13 @@
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>17</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="n">
-        <v>0.455</v>
+        <v>0.463</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L26" t="n">
         <v>8</v>
@@ -5064,28 +5131,28 @@
         <v>23.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O26" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P26" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R26" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T26" t="n">
         <v>41.4</v>
       </c>
       <c r="U26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
         <v>15</v>
@@ -5100,40 +5167,40 @@
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.90000000000001</v>
+        <v>96.7</v>
       </c>
       <c r="AC26" t="n">
         <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5145,16 +5212,16 @@
         <v>27</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS26" t="n">
         <v>18</v>
@@ -5166,13 +5233,13 @@
         <v>22</v>
       </c>
       <c r="AV26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB26" t="n">
         <v>17</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,19 +5301,19 @@
         <v>36.4</v>
       </c>
       <c r="J27" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K27" t="n">
         <v>0.438</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
         <v>18.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.355</v>
+        <v>0.351</v>
       </c>
       <c r="O27" t="n">
         <v>17.6</v>
@@ -5255,43 +5322,43 @@
         <v>23.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S27" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T27" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U27" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V27" t="n">
         <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X27" t="n">
         <v>4.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
         <v>21.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.1</v>
+        <v>-6.9</v>
       </c>
       <c r="AD27" t="n">
         <v>5</v>
@@ -5309,22 +5376,22 @@
         <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AO27" t="n">
         <v>9</v>
@@ -5333,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5348,10 +5415,10 @@
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="n">
         <v>44</v>
       </c>
       <c r="F28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.772</v>
+        <v>0.786</v>
       </c>
       <c r="H28" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="M28" t="n">
         <v>22.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.381</v>
+        <v>0.384</v>
       </c>
       <c r="O28" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.79</v>
+        <v>0.792</v>
       </c>
       <c r="R28" t="n">
         <v>7.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>8.699999999999999</v>
@@ -5464,19 +5531,19 @@
         <v>4.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,10 +5576,10 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5521,10 +5588,10 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
         <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>0.411</v>
+        <v>0.4</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5598,7 +5665,7 @@
         <v>36.3</v>
       </c>
       <c r="J29" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
         <v>0.443</v>
@@ -5610,31 +5677,31 @@
         <v>21.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O29" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T29" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U29" t="n">
         <v>22.1</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
@@ -5643,19 +5710,19 @@
         <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z29" t="n">
         <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AB29" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
         <v>5</v>
@@ -5673,10 +5740,10 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
         <v>18</v>
@@ -5697,7 +5764,7 @@
         <v>15</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR29" t="n">
         <v>20</v>
@@ -5706,10 +5773,10 @@
         <v>28</v>
       </c>
       <c r="AT29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -5840,34 +5907,34 @@
         <v>-0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
       </c>
       <c r="AG30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH30" t="n">
         <v>13</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>12</v>
       </c>
       <c r="AI30" t="n">
         <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
         <v>10</v>
@@ -5876,7 +5943,7 @@
         <v>6</v>
       </c>
       <c r="AP30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
         <v>11</v>
@@ -5891,22 +5958,22 @@
         <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
         <v>16</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA30" t="n">
         <v>9</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
@@ -5944,91 +6011,91 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="n">
         <v>37</v>
       </c>
       <c r="G31" t="n">
-        <v>0.302</v>
+        <v>0.288</v>
       </c>
       <c r="H31" t="n">
         <v>48.7</v>
       </c>
       <c r="I31" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J31" t="n">
-        <v>82.40000000000001</v>
+        <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M31" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O31" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="P31" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R31" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S31" t="n">
         <v>32.5</v>
       </c>
       <c r="T31" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U31" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V31" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.8</v>
+        <v>91.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6046,16 +6113,16 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>25</v>
@@ -6070,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU31" t="n">
         <v>20</v>
@@ -6082,7 +6149,7 @@
         <v>18</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-22-2012-13</t>
+          <t>2013-02-22</t>
         </is>
       </c>
     </row>
